--- a/CCK8_Transfection_Plots/20231211_CCK8_DIPRepeat(3).xlsx
+++ b/CCK8_Transfection_Plots/20231211_CCK8_DIPRepeat(3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/CCK8_Transfection_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E07BA69-0121-694F-B270-6C5410A94A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61763AB9-EB04-434B-98E4-05B38DEEB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="780" windowWidth="19720" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DIPPolyplexes" sheetId="5" r:id="rId4"/>
     <sheet name="DIPPolyplexesCalcs2" sheetId="6" r:id="rId5"/>
     <sheet name="PolymerOnly" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">1759294816</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="103">
   <si>
     <t>Software Version</t>
   </si>
@@ -336,6 +337,21 @@
   </si>
   <si>
     <t>UT 2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G1</t>
   </si>
 </sst>
 </file>
@@ -587,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -705,6 +721,14 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,19 +738,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,7 +1286,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="7">
@@ -1319,7 +1330,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="42"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="12">
         <v>0.61399999999999999</v>
       </c>
@@ -1361,7 +1372,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="42"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="17">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -1403,7 +1414,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B42" s="43"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="19" t="s">
         <v>42</v>
       </c>
@@ -1445,7 +1456,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="25">
@@ -1489,7 +1500,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="42"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="17">
         <v>0.16700000000000001</v>
       </c>
@@ -1531,7 +1542,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="42"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="18">
         <v>0.04</v>
       </c>
@@ -1573,7 +1584,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B46" s="43"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="23">
         <v>35106</v>
       </c>
@@ -1615,7 +1626,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="31">
@@ -1659,7 +1670,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="42"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="18">
         <v>5.0999999999999997E-2</v>
       </c>
@@ -1701,7 +1712,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="42"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1743,7 +1754,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B50" s="43"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="32">
         <v>14514</v>
       </c>
@@ -1785,7 +1796,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="7">
@@ -1829,7 +1840,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="42"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="15">
         <v>0.51300000000000001</v>
       </c>
@@ -1871,7 +1882,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B53" s="42"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="18">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -1913,7 +1924,7 @@
       </c>
     </row>
     <row r="54" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B54" s="43"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="20">
         <v>26417</v>
       </c>
@@ -1955,7 +1966,7 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="27">
@@ -1999,7 +2010,7 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="42"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="30">
         <v>0.318</v>
       </c>
@@ -2041,7 +2052,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="42"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="18">
         <v>0.04</v>
       </c>
@@ -2083,7 +2094,7 @@
       </c>
     </row>
     <row r="58" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B58" s="43"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="36">
         <v>68459</v>
       </c>
@@ -2125,7 +2136,7 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="31">
@@ -2169,7 +2180,7 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60" s="42"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="18">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -2211,7 +2222,7 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="42"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -2253,7 +2264,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B62" s="43"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="32">
         <v>14778</v>
       </c>
@@ -2295,7 +2306,7 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="26">
@@ -2339,7 +2350,7 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64" s="42"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="29">
         <v>0.19</v>
       </c>
@@ -2381,7 +2392,7 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65" s="42"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -2423,7 +2434,7 @@
       </c>
     </row>
     <row r="66" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B66" s="43"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="40">
         <v>73882</v>
       </c>
@@ -2465,7 +2476,7 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="25">
@@ -2509,7 +2520,7 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68" s="42"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="17">
         <v>0.16800000000000001</v>
       </c>
@@ -2551,7 +2562,7 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B69" s="42"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -2593,7 +2604,7 @@
       </c>
     </row>
     <row r="70" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B70" s="43"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="38">
         <v>63464</v>
       </c>
@@ -2702,7 +2713,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="7">
@@ -2746,7 +2757,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="12">
         <v>0.61399999999999999</v>
       </c>
@@ -2788,7 +2799,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="42"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="17">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -2830,7 +2841,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
@@ -2872,7 +2883,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="25">
@@ -2916,7 +2927,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="42"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="17">
         <v>0.16700000000000001</v>
       </c>
@@ -2958,7 +2969,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="18">
         <v>0.04</v>
       </c>
@@ -3000,7 +3011,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23">
         <v>35106</v>
       </c>
@@ -3042,18 +3053,18 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3158,16 +3169,16 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="41" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3273,30 +3284,30 @@
     </row>
     <row r="20" spans="3:14" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>58</v>
       </c>
       <c r="D22">
@@ -3307,7 +3318,7 @@
         <f>D22/D$22</f>
         <v>1</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="43">
         <f>F22*100</f>
         <v>100</v>
       </c>
@@ -3329,7 +3340,7 @@
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>51</v>
       </c>
       <c r="D23">
@@ -3340,7 +3351,7 @@
         <f t="shared" ref="F23:F29" si="5">D23/D$22</f>
         <v>0.88189845474613682</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="43">
         <f t="shared" ref="G23:G29" si="6">F23*100</f>
         <v>88.189845474613676</v>
       </c>
@@ -3362,7 +3373,7 @@
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D24">
@@ -3373,7 +3384,7 @@
         <f t="shared" si="5"/>
         <v>0.91390728476821204</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="43">
         <f t="shared" si="6"/>
         <v>91.390728476821209</v>
       </c>
@@ -3395,7 +3406,7 @@
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D25">
@@ -3406,7 +3417,7 @@
         <f t="shared" si="5"/>
         <v>0.37858719646799116</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="43">
         <f t="shared" si="6"/>
         <v>37.858719646799116</v>
       </c>
@@ -3428,7 +3439,7 @@
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D26">
@@ -3439,7 +3450,7 @@
         <f t="shared" si="5"/>
         <v>0.88686534216335533</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="43">
         <f t="shared" si="6"/>
         <v>88.686534216335531</v>
       </c>
@@ -3461,7 +3472,7 @@
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D27">
@@ -3472,7 +3483,7 @@
         <f t="shared" si="5"/>
         <v>0.24944812362030908</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="43">
         <f t="shared" si="6"/>
         <v>24.944812362030909</v>
       </c>
@@ -3494,7 +3505,7 @@
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D28">
@@ -3505,7 +3516,7 @@
         <f t="shared" si="5"/>
         <v>0.21136865342163358</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="43">
         <f t="shared" si="6"/>
         <v>21.136865342163357</v>
       </c>
@@ -3527,7 +3538,7 @@
       </c>
     </row>
     <row r="29" spans="3:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="41" t="s">
         <v>57</v>
       </c>
       <c r="D29">
@@ -3538,7 +3549,7 @@
         <f t="shared" si="5"/>
         <v>0.43598233995584995</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="44">
         <f t="shared" si="6"/>
         <v>43.598233995584998</v>
       </c>
@@ -3570,7 +3581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF87D0F1-1FED-DE43-A470-6A532E76C497}">
-  <dimension ref="B1:S32"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21:L27"/>
@@ -3578,40 +3589,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B1" s="50"/>
-      <c r="C1" s="48" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="54" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B2" s="41" t="s">
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="7">
@@ -3653,13 +3652,9 @@
       <c r="O2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="42"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="48"/>
       <c r="C3" s="15">
         <v>0.51300000000000001</v>
       </c>
@@ -3699,13 +3694,9 @@
       <c r="O3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="48"/>
       <c r="C4" s="18">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -3745,13 +3736,9 @@
       <c r="O4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="2:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="43"/>
+    </row>
+    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="B5" s="49"/>
       <c r="C5" s="20">
         <v>26417</v>
       </c>
@@ -3791,13 +3778,9 @@
       <c r="O5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B6" s="41" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="27">
@@ -3839,13 +3822,9 @@
       <c r="O6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B7" s="42"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="48"/>
       <c r="C7" s="30">
         <v>0.318</v>
       </c>
@@ -3885,13 +3864,9 @@
       <c r="O7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B8" s="42"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="48"/>
       <c r="C8" s="18">
         <v>0.04</v>
       </c>
@@ -3931,13 +3906,9 @@
       <c r="O8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="9" spans="2:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="B9" s="43"/>
+    </row>
+    <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="B9" s="49"/>
       <c r="C9" s="36">
         <v>68459</v>
       </c>
@@ -3977,149 +3948,88 @@
       <c r="O9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-    </row>
-    <row r="10" spans="2:19" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="s">
+    </row>
+    <row r="10" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="C10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="C11" s="48"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="48" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F13" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f>F2-F4</f>
         <v>0.60599999999999998</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="41">
         <f t="shared" ref="G14:N14" si="0">G2-G4</f>
         <v>0.56099999999999994</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="41">
         <f t="shared" si="0"/>
         <v>0.55499999999999994</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="41">
         <f t="shared" si="0"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="41">
         <f t="shared" si="0"/>
         <v>0.48500000000000004</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="41">
         <f t="shared" si="0"/>
         <v>0.56699999999999995</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="41">
         <f t="shared" si="0"/>
         <v>0.51700000000000002</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="41">
         <f t="shared" si="0"/>
         <v>0.51500000000000001</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="41">
         <f t="shared" si="0"/>
         <v>0.53699999999999992</v>
       </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F15">
         <f>F14/$D$21</f>
         <v>1.0557491289198606</v>
@@ -4158,16 +4068,16 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="41" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4272,80 +4182,77 @@
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="54" t="s">
+      <c r="I20" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="54" t="s">
+      <c r="L20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="41">
         <f>AVERAGE(F14:H14)</f>
         <v>0.57399999999999995</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="41">
         <f>D21/D$21</f>
         <v>1</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="41">
         <f>F21*100</f>
         <v>100</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="44">
+      <c r="I21" s="41">
         <f>F15*100</f>
         <v>105.57491289198606</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="41">
         <f t="shared" ref="J21:K21" si="4">G15*100</f>
         <v>97.735191637630663</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="41">
         <f t="shared" si="4"/>
         <v>96.689895470383263</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="41">
         <f>STDEV(I21:K21)</f>
         <v>4.8562229493959439</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
       <c r="D22">
         <f>AVERAGE(I14:K14)</f>
         <v>0.42099999999999999</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <f t="shared" ref="F22:F27" si="5">D22/D$21</f>
         <v>0.73344947735191646</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="41">
         <f t="shared" ref="G22:G27" si="6">F22*100</f>
         <v>73.344947735191653</v>
       </c>
-      <c r="H22" s="50"/>
       <c r="I22">
         <f>I15*100</f>
         <v>36.759581881533101</v>
@@ -4358,28 +4265,27 @@
         <f t="shared" si="7"/>
         <v>98.780487804878049</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="41">
         <f t="shared" ref="L22:L27" si="8">STDEV(I22:K22)</f>
         <v>32.479026373150376</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>70</v>
       </c>
       <c r="D23">
         <f>AVERAGE(L14:N14)</f>
         <v>0.52300000000000002</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="41">
         <f t="shared" si="5"/>
         <v>0.91114982578397219</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="41">
         <f t="shared" si="6"/>
         <v>91.114982578397218</v>
       </c>
-      <c r="H23" s="50"/>
       <c r="I23">
         <f>L15*100</f>
         <v>90.069686411149846</v>
@@ -4392,28 +4298,27 @@
         <f t="shared" si="9"/>
         <v>93.554006968641119</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="41">
         <f t="shared" si="8"/>
         <v>2.1194294530655773</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D24">
         <f>AVERAGE(C18:E18)</f>
         <v>0.33600000000000002</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="41">
         <f t="shared" si="5"/>
         <v>0.58536585365853666</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="41">
         <f t="shared" si="6"/>
         <v>58.536585365853668</v>
       </c>
-      <c r="H24" s="50"/>
       <c r="I24">
         <f>C19*100</f>
         <v>47.73519163763067</v>
@@ -4426,28 +4331,27 @@
         <f t="shared" si="10"/>
         <v>67.247386759581886</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="41">
         <f t="shared" si="8"/>
         <v>9.9226695929604247</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D25">
         <f>AVERAGE(F18:H18)</f>
         <v>0.17299999999999996</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="41">
         <f t="shared" si="5"/>
         <v>0.30139372822299648</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="41">
         <f t="shared" si="6"/>
         <v>30.139372822299649</v>
       </c>
-      <c r="H25" s="50"/>
       <c r="I25">
         <f>F19*100</f>
         <v>25.087108013937282</v>
@@ -4460,28 +4364,27 @@
         <f t="shared" si="11"/>
         <v>36.236933797909408</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="41">
         <f t="shared" si="8"/>
         <v>5.6479320827342647</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D26">
         <f>AVERAGE(I18:K18)</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="41">
         <f t="shared" si="5"/>
         <v>0.90011614401858298</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="41">
         <f t="shared" si="6"/>
         <v>90.011614401858296</v>
       </c>
-      <c r="H26" s="50"/>
       <c r="I26">
         <f>I19*100</f>
         <v>85.017421602787465</v>
@@ -4494,28 +4397,27 @@
         <f t="shared" si="12"/>
         <v>91.986062717770025</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="41">
         <f t="shared" si="8"/>
         <v>4.3565619822325221</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D27">
         <f>AVERAGE(L18:N18)</f>
         <v>0.19633333333333333</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="41">
         <f t="shared" si="5"/>
         <v>0.34204413472706158</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="41">
         <f t="shared" si="6"/>
         <v>34.204413472706158</v>
       </c>
-      <c r="H27" s="50"/>
       <c r="I27">
         <f>L19*100</f>
         <v>33.972125435540065</v>
@@ -4528,32 +4430,16 @@
         <f t="shared" si="13"/>
         <v>33.10104529616725</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="41">
         <f t="shared" si="8"/>
         <v>1.2359928370379072</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C28" s="44"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C29" s="44"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
+      <c r="C29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4568,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1442DC74-191A-FA4F-9ACF-20498F92C6BA}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4579,33 +4465,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B2">
@@ -4633,7 +4519,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B3">
@@ -4643,11 +4529,11 @@
         <v>32.479026373150376</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">AVERAGE(F3:H3)</f>
+        <f t="shared" ref="D3:D10" si="0">AVERAGE(F3:H3)</f>
         <v>0.19000000000000003</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="1">STDEV(F3:H3)</f>
+        <f t="shared" ref="E3:E10" si="1">STDEV(F3:H3)</f>
         <v>4.5825756949558372E-2</v>
       </c>
       <c r="F3">
@@ -4661,7 +4547,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>70</v>
       </c>
       <c r="B4">
@@ -4689,7 +4575,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B5">
@@ -4717,8 +4603,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
-        <v>74</v>
+      <c r="A6" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="B6">
         <v>30.139372822299649</v>
@@ -4745,8 +4631,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
-        <v>75</v>
+      <c r="A7" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="B7">
         <v>90.011614401858296</v>
@@ -4773,8 +4659,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>76</v>
+      <c r="A8" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="B8">
         <v>34.204413472706158</v>
@@ -4801,8 +4687,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
-        <v>85</v>
+      <c r="A9" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="B9">
         <v>31.30193905817174</v>
@@ -4821,16 +4707,16 @@
       <c r="F9">
         <v>33.44</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="41">
         <v>34.619999999999997</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="41">
         <v>32.92</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
-        <v>86</v>
+      <c r="A10" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>53.019390581717452</v>
@@ -4849,149 +4735,36 @@
       <c r="F10">
         <v>24.19</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="41">
         <v>25.04</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="41">
         <v>25.04</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>24.321329639889193</v>
-      </c>
-      <c r="C11">
-        <v>3.8634467305509022</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>57.650000000000006</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.30805843601499044</v>
-      </c>
-      <c r="F11">
-        <v>57.3</v>
-      </c>
-      <c r="G11" s="44">
-        <v>57.88</v>
-      </c>
-      <c r="H11" s="44">
-        <v>57.77</v>
-      </c>
+      <c r="A11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12">
-        <v>93.074792243767305</v>
-      </c>
-      <c r="C12">
-        <v>3.4704619974217956</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>7.5055534994651382E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.22</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H12" s="44">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="A12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13">
-        <v>24.321329639889196</v>
-      </c>
-      <c r="C13">
-        <v>3.066170438121147</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>52.126666666666665</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>6.658328118479527E-2</v>
-      </c>
-      <c r="F13">
-        <v>52.16</v>
-      </c>
-      <c r="G13" s="44">
-        <v>52.05</v>
-      </c>
-      <c r="H13" s="44">
-        <v>52.17</v>
-      </c>
+      <c r="A13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14">
-        <v>27.922437673130197</v>
-      </c>
-      <c r="C14">
-        <v>2.912146615169291</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>44.22</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.59101607423148805</v>
-      </c>
-      <c r="F14">
-        <v>43.83</v>
-      </c>
-      <c r="G14" s="44">
-        <v>43.93</v>
-      </c>
-      <c r="H14" s="44">
-        <v>44.9</v>
-      </c>
+      <c r="A14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15">
-        <v>39.00277008310249</v>
-      </c>
-      <c r="C15">
-        <v>3.0661704381211563</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>32.884999999999998</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.5868986283848332</v>
-      </c>
-      <c r="F15">
-        <v>32.47</v>
-      </c>
-      <c r="G15" s="44">
-        <v>33.299999999999997</v>
-      </c>
+      <c r="A15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5009,21 +4782,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="26">
@@ -5067,7 +4840,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="42"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="29">
         <v>0.19</v>
       </c>
@@ -5109,7 +4882,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -5151,7 +4924,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="40">
         <v>73882</v>
       </c>
@@ -5193,7 +4966,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="25">
@@ -5237,7 +5010,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="42"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="17">
         <v>0.16800000000000001</v>
       </c>
@@ -5279,7 +5052,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="42"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -5321,7 +5094,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B9" s="43"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="38">
         <v>63464</v>
       </c>
@@ -5363,30 +5136,30 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="41" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5491,16 +5264,16 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="41" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5605,33 +5378,33 @@
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="41">
         <f>AVERAGE(L17:N17)</f>
         <v>0.60166666666666668</v>
       </c>
@@ -5643,7 +5416,7 @@
         <f>F21*100</f>
         <v>100</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="41" t="s">
         <v>85</v>
       </c>
       <c r="I21">
@@ -5664,7 +5437,7 @@
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>85</v>
       </c>
       <c r="D22">
@@ -5679,7 +5452,7 @@
         <f t="shared" ref="G22:G28" si="6">F22*100</f>
         <v>31.30193905817174</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="41" t="s">
         <v>86</v>
       </c>
       <c r="I22">
@@ -5700,7 +5473,7 @@
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D23">
@@ -5715,7 +5488,7 @@
         <f t="shared" si="6"/>
         <v>53.019390581717452</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I23">
@@ -5736,7 +5509,7 @@
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="D24">
@@ -5751,7 +5524,7 @@
         <f t="shared" si="6"/>
         <v>24.321329639889193</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I24">
@@ -5772,7 +5545,7 @@
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="D25">
@@ -5787,7 +5560,7 @@
         <f t="shared" si="6"/>
         <v>93.074792243767305</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I25">
@@ -5808,7 +5581,7 @@
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="D26">
@@ -5823,7 +5596,7 @@
         <f t="shared" si="6"/>
         <v>24.321329639889196</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="41" t="s">
         <v>95</v>
       </c>
       <c r="I26">
@@ -5844,7 +5617,7 @@
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>95</v>
       </c>
       <c r="D27">
@@ -5859,7 +5632,7 @@
         <f t="shared" si="6"/>
         <v>27.922437673130197</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27">
@@ -5880,7 +5653,7 @@
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D28">
@@ -5895,7 +5668,7 @@
         <f t="shared" si="6"/>
         <v>39.00277008310249</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="41" t="s">
         <v>97</v>
       </c>
       <c r="I28">
@@ -5928,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B6B2A-22BB-234A-99B7-8736E7874F4B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5939,18 +5712,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B2">
@@ -5961,7 +5734,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>70</v>
       </c>
       <c r="B3">
@@ -5972,7 +5745,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B4">
@@ -5983,8 +5756,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
-        <v>53</v>
+      <c r="A5" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="B5">
         <v>37.858719646799116</v>
@@ -5994,8 +5767,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
-        <v>54</v>
+      <c r="A6" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="B6">
         <v>88.686534216335531</v>
@@ -6005,8 +5778,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
-        <v>55</v>
+      <c r="A7" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="B7">
         <v>24.944812362030909</v>
@@ -6016,8 +5789,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>56</v>
+      <c r="A8" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="B8">
         <v>21.136865342163357</v>
@@ -6027,14 +5800,166 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
-        <v>57</v>
+      <c r="A9" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="B9">
         <v>43.598233995584998</v>
       </c>
       <c r="C9">
         <v>1.4080961172376416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902425A-80F3-0944-83D1-0F01CA2A06A3}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1">
+        <v>24.321329639889193</v>
+      </c>
+      <c r="C1">
+        <v>3.8634467305509022</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D5" si="0">AVERAGE(F1:H1)</f>
+        <v>57.650000000000006</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E5" si="1">STDEV(F1:H1)</f>
+        <v>0.30805843601499044</v>
+      </c>
+      <c r="F1">
+        <v>57.3</v>
+      </c>
+      <c r="G1" s="41">
+        <v>57.88</v>
+      </c>
+      <c r="H1" s="41">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>93.074792243767305</v>
+      </c>
+      <c r="C2">
+        <v>3.4704619974217956</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="1"/>
+        <v>7.5055534994651382E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>24.321329639889196</v>
+      </c>
+      <c r="C3">
+        <v>3.066170438121147</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>52.126666666666665</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>6.658328118479527E-2</v>
+      </c>
+      <c r="F3">
+        <v>52.16</v>
+      </c>
+      <c r="G3" s="41">
+        <v>52.05</v>
+      </c>
+      <c r="H3" s="41">
+        <v>52.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>27.922437673130197</v>
+      </c>
+      <c r="C4">
+        <v>2.912146615169291</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>44.22</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.59101607423148805</v>
+      </c>
+      <c r="F4">
+        <v>43.83</v>
+      </c>
+      <c r="G4" s="41">
+        <v>43.93</v>
+      </c>
+      <c r="H4" s="41">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>39.00277008310249</v>
+      </c>
+      <c r="C5">
+        <v>3.0661704381211563</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>32.884999999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.5868986283848332</v>
+      </c>
+      <c r="F5">
+        <v>32.47</v>
+      </c>
+      <c r="G5" s="41">
+        <v>33.299999999999997</v>
       </c>
     </row>
   </sheetData>
